--- a/Wallets.xlsx
+++ b/Wallets.xlsx
@@ -424,22 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>372zAskmismW1J152Tdb4jiLci2x8khb7B</t>
+          <t>36hoBvBeZY8KKuCe4fG6tvE6bHQh49Wm9v</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>0.46660744 BTC</t>
+          <t>0.16483332 BTC</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0.46660744 BTC</t>
+          <t>0.16483332 BTC</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -449,12 +449,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>$19,701.03</t>
+          <t>$6,327.99</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>$19,701.03</t>
+          <t>$6,327.99</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -464,12 +464,12 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>2021-11-29 14:45</t>
+          <t>2021-07-01 08:53</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>07-01-2022_13:01</t>
+          <t>02-02-2022_16:01</t>
         </is>
       </c>
     </row>
